--- a/g-filter1d-plot.xlsx
+++ b/g-filter1d-plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\- 006 -        開源\開源-JS-003-2-w-fft\w-fft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA2100-1499-4C83-8E93-37522FDEC0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34227F4-E5A1-448A-9B7B-74BBA6E2AB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4895,7 +4895,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10203,7 +10203,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
